--- a/data/Wikimedia Commons.xlsx
+++ b/data/Wikimedia Commons.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2801c66b66bc4e8/Github/WanZiCat.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_5F3FCE4E2364FF18F55B1250EA3161BA935EA5EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0BFF734-EF5B-4C63-A8C2-216CB73BB702}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_5F3FCE4E2364FF18F55B1250EA3161BA935EA5EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70DC3AD9-82C3-4D89-BA0C-4D8FE0ECD449}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2008,6 +2008,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="172" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
